--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1976066.506010534</v>
+        <v>-1978954.4662807</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>355.9375968855384</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,10 +710,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>142.4970771208296</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>115.9221652340497</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>69.14714931070563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>128.6684380861147</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>379.1635783963843</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.2799396598947</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>96.41786047845608</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>15.26623770341353</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>13.81329819404387</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>76.51211525490984</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>138.6068238627731</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>70.38407275859156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>87.27508091634219</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>215.7183996732927</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.3074490814217</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>65.25773758188275</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>131.2944603446578</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541846</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.716041360135</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.716041360135</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.716041360135</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>977.927788761891</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>566.9418839722833</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2322.006472326694</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2068.244686964786</v>
+        <v>2130.215150638939</v>
       </c>
       <c r="V2" t="n">
-        <v>1737.181799621215</v>
+        <v>1799.152263295368</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.181799621215</v>
+        <v>1799.152263295368</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.716041360135</v>
+        <v>1729.306657931019</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.716041360135</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.5124000972908</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C4" t="n">
-        <v>416.5124000972908</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D4" t="n">
-        <v>416.5124000972908</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>598.1608649275305</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>598.1608649275305</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>598.1608649275305</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>854.9003034538789</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>854.9003034538789</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>854.9003034538789</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>854.9003034538789</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1245.039635429691</v>
+        <v>1188.639942242261</v>
       </c>
       <c r="Y5" t="n">
-        <v>854.9003034538789</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416.4487827635302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>630.7372059453675</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>416.4487827635302</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>416.4487827635302</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>416.4487827635302</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>416.4487827635302</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>416.4487827635302</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>416.4487827635302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>416.4487827635302</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1255.702809104955</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.702809104955</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4371104982047</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>897.4371104982047</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>486.4512057085971</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>69.36342394502458</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>803.6554202972151</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1435.373231280527</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2062.680899340373</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2058.489662069283</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.302649169077</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="X8" t="n">
-        <v>1642.302649169077</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="Y8" t="n">
-        <v>1642.302649169077</v>
+        <v>1705.721006799168</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>118.4710672642478</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>447.8994715700576</v>
+        <v>478.5308710654409</v>
       </c>
       <c r="L9" t="n">
-        <v>585.1290695857516</v>
+        <v>982.8924109315594</v>
       </c>
       <c r="M9" t="n">
-        <v>764.6264059403564</v>
+        <v>1623.437760398664</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240.753752507634</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>976.5926983757598</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>750.9635016881248</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>750.9635016881248</v>
+        <v>913.8707704890293</v>
       </c>
       <c r="V10" t="n">
-        <v>750.9635016881248</v>
+        <v>659.1862822831424</v>
       </c>
       <c r="W10" t="n">
-        <v>461.5463316511641</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X10" t="n">
-        <v>461.5463316511641</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y10" t="n">
-        <v>240.753752507634</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532264</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4663485834661</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>924.8344286397182</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2009.464245195835</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989948</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397182</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.432392194325</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,34 +6361,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6397,10 +6397,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6628,25 +6628,25 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7254,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150025</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7594,16 +7594,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7813,19 +7813,19 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>18.46138444627843</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>71.4130894686792</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>240.7280987119431</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>57.84657313525664</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>300.5839513677634</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,28 +22747,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>157.8545602504763</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>216.1389255779994</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>198.909393472902</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>70.46607471595149</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.21554925516926</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>154.8900140445864</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1142073.344609824</v>
+        <v>1142073.344609823</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287326</v>
+        <v>64921.82232287324</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.6599690006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="G2" t="n">
         <v>80714.65996900063</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>80714.65996900061</v>
-      </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642834</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-11</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682757</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="K4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="M4" t="n">
         <v>13668.39582977623</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977624</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-719756.3271911874</v>
+        <v>-720185.8860577763</v>
       </c>
       <c r="C6" t="n">
-        <v>-210677.3165400144</v>
+        <v>-210677.3165400145</v>
       </c>
       <c r="D6" t="n">
-        <v>-366481.1226338095</v>
+        <v>-366481.1226338094</v>
       </c>
       <c r="E6" t="n">
-        <v>-797138.0978023957</v>
+        <v>-797172.8357278312</v>
       </c>
       <c r="F6" t="n">
-        <v>-26085.40642158926</v>
+        <v>-26120.14434702491</v>
       </c>
       <c r="G6" t="n">
-        <v>-26085.40642158924</v>
+        <v>-26120.14434702495</v>
       </c>
       <c r="H6" t="n">
-        <v>-26085.40642158929</v>
+        <v>-26120.14434702497</v>
       </c>
       <c r="I6" t="n">
-        <v>-26085.40642158924</v>
+        <v>-26120.14434702492</v>
       </c>
       <c r="J6" t="n">
-        <v>-230579.2718834879</v>
+        <v>-230579.271883488</v>
       </c>
       <c r="K6" t="n">
         <v>-34728.33469726323</v>
       </c>
       <c r="L6" t="n">
-        <v>-34728.3346972632</v>
+        <v>-34728.33469726327</v>
       </c>
       <c r="M6" t="n">
         <v>-158936.8454053217</v>
       </c>
       <c r="N6" t="n">
+        <v>-34728.33469726323</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-54156.05269089507</v>
+      </c>
+      <c r="P6" t="n">
         <v>-34728.33469726329</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-54156.05269089493</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-34728.33469726323</v>
       </c>
     </row>
   </sheetData>
@@ -26701,16 +26701,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
@@ -26719,13 +26719,13 @@
         <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>73.95124323682819</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>135.3020022742396</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>27.71246734532718</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.45116101857434</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>50.24733150170178</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>299.774646371802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>313.9389602760911</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>128.8537666452088</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>147.6538307953239</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>397.4049812900381</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312103</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>555.0107214892114</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8027404478649</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>669.466988500007</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>485.1127032082914</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>198.560797075695</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34942,7 +34942,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>159.1974004475443</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>65.17988428675083</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>309.018825644627</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>259.5635423156791</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998995</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867659</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>423.6690094058781</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>310.2064960034205</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>526.8707440555626</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>342.516458763847</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>55.96455263125056</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,10 +38184,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
